--- a/subsystem_test/熱源モデルデータ_EnergyPlus.xlsx
+++ b/subsystem_test/熱源モデルデータ_EnergyPlus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eikichiono/Dropbox/My Mac (EikichiのMacBook Pro)/Documents/04_Association/SHASE/ECP/EnergyPlus_SHASEG1008/EnergyPlus_SHASEG1008/subsystem_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B673C8F8-E88E-C640-B12F-59B3E5450715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FD4779-93B0-6344-9C0C-E958718A0A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18460" yWindow="-2280" windowWidth="18460" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -453,7 +453,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -464,7 +464,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -589,7 +589,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -600,7 +600,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -985,11 +985,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -997,7 +997,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1011,7 +1011,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1019,21 +1019,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1042,7 +1042,7 @@
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1239,14 +1239,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1260,40 +1296,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,22 +1308,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="20% - アクセント 3" xfId="1" builtinId="38"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1335,7 +1335,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1353,7 +1353,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1385,7 +1385,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1397,7 +1397,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-SG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1460,7 +1460,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1472,7 +1472,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ja-SG"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1508,19 +1508,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.1831604611326472</c:v>
+                  <c:v>0.19860613458282445</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9046720744513523</c:v>
+                  <c:v>0.3034410059483465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2492492492492449</c:v>
+                  <c:v>0.44972972972972813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95027115590572597</c:v>
+                  <c:v>0.60686914650408275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76913139761826776</c:v>
+                  <c:v>0.76649286989640097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,7 +1586,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1598,7 +1598,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1527494608"/>
@@ -1648,7 +1648,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1660,7 +1660,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1526994064"/>
@@ -1708,7 +1708,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-SG"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1722,7 +1722,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1740,7 +1740,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1772,7 +1772,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1784,7 +1784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-SG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1847,7 +1847,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1859,7 +1859,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ja-SG"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1955,7 +1955,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1967,7 +1967,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1527494608"/>
@@ -2017,7 +2017,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2029,7 +2029,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1526994064"/>
@@ -2077,7 +2077,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-SG"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2091,7 +2091,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2109,7 +2109,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2141,7 +2141,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2153,7 +2153,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-SG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2216,7 +2216,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2228,7 +2228,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ja-SG"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2336,7 +2336,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2348,7 +2348,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1527494608"/>
@@ -2398,7 +2398,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2410,7 +2410,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1526994064"/>
@@ -2458,7 +2458,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-SG"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2472,7 +2472,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2490,7 +2490,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2522,7 +2522,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2534,7 +2534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-SG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2828,7 +2828,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2840,7 +2840,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702331487"/>
@@ -2890,7 +2890,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2902,7 +2902,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701850415"/>
@@ -2950,7 +2950,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-SG"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2964,7 +2964,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2982,7 +2982,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3015,7 +3015,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3027,7 +3027,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-SG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3321,7 +3321,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3333,7 +3333,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702331487"/>
@@ -3383,7 +3383,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3395,7 +3395,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701850415"/>
@@ -3443,7 +3443,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-SG"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3457,7 +3457,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3475,7 +3475,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3508,7 +3508,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3520,7 +3520,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-SG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3754,7 +3754,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3766,7 +3766,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702331487"/>
@@ -3816,7 +3816,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3828,7 +3828,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701850415"/>
@@ -3876,7 +3876,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-SG"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3890,7 +3890,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3908,7 +3908,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3941,7 +3941,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3953,7 +3953,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-SG"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4187,7 +4187,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4199,7 +4199,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="702331487"/>
@@ -4249,7 +4249,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4261,7 +4261,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-SG"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="701850415"/>
@@ -4309,7 +4309,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-SG"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8793,11 +8793,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AC112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="112" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -8806,77 +8806,77 @@
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="28" t="s">
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="35"/>
       <c r="J4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="30"/>
-      <c r="B6" s="32" t="s">
+      <c r="E5" s="35"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="J6" s="25"/>
+      <c r="E6" s="35"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="9"/>
       <c r="L6" s="20"/>
       <c r="M6" s="9"/>
@@ -8900,16 +8900,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="16">
-      <c r="A7" s="30"/>
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="35"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="20"/>
@@ -8930,16 +8930,16 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
     </row>
-    <row r="8" spans="1:29" ht="13.25" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="1:29" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34">
+      <c r="C8" s="28"/>
+      <c r="D8" s="36">
         <v>0.64</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="36"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -8960,93 +8960,93 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
     </row>
-    <row r="9" spans="1:29" ht="16">
-      <c r="A9" s="31"/>
+    <row r="9" spans="1:29" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
       <c r="B9" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:29" ht="13.25" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:29" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="40"/>
-      <c r="B11" s="32" t="s">
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="40"/>
-      <c r="B12" s="32" t="s">
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:29" ht="13.25" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="32" t="s">
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:29" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:29" ht="13.25" customHeight="1">
+    <row r="15" spans="1:29" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="9">
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="36"/>
-      <c r="B17" s="38" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="18">
         <v>1512</v>
       </c>
@@ -9055,104 +9055,104 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="36"/>
-      <c r="B18" s="38" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
+      <c r="B18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16">
-      <c r="A20" s="36"/>
-      <c r="B20" s="38" t="s">
+    <row r="20" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="9">
         <v>32.4</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="36"/>
-      <c r="B21" s="38" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="9">
         <v>405</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="36"/>
-      <c r="B22" s="38" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="9">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="37"/>
-      <c r="B23" s="41" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="42"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="5">
         <v>47.6</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="35" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="9">
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="36"/>
-      <c r="B25" s="38" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
+      <c r="B25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="18">
         <v>1512</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="36"/>
-      <c r="B26" s="38" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
+      <c r="B26" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="9">
         <v>51.7</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="36"/>
-      <c r="B27" s="38" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
+      <c r="B27" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="9">
         <v>55</v>
       </c>
@@ -9170,12 +9170,12 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" ht="16">
-      <c r="A28" s="36"/>
-      <c r="B28" s="38" t="s">
+    <row r="28" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
+      <c r="B28" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="9">
         <v>31.8</v>
       </c>
@@ -9193,44 +9193,44 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="36"/>
-      <c r="B29" s="38" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="31"/>
+      <c r="B29" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="9">
         <v>398</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="36"/>
-      <c r="B30" s="38" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="31"/>
+      <c r="B30" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="9">
         <v>4.3</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="37"/>
-      <c r="B31" s="41" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="42"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="5">
         <v>47.6</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="36" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="18">
         <v>2500</v>
       </c>
@@ -9243,12 +9243,12 @@
         <v>872.08333333333326</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
-      <c r="A33" s="36"/>
-      <c r="B33" s="38" t="s">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="9">
         <v>32</v>
       </c>
@@ -9261,12 +9261,12 @@
         <v>0.85205761316872408</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
-      <c r="A34" s="36"/>
-      <c r="B34" s="38" t="s">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
+      <c r="B34" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="9">
         <v>37</v>
       </c>
@@ -9275,24 +9275,24 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="37"/>
-      <c r="B35" s="41" t="s">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+      <c r="B35" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="42"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="5">
         <v>57.8</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
       <c r="E36" s="14"/>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -9301,7 +9301,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="N38" t="s">
         <v>32</v>
       </c>
@@ -9320,7 +9320,7 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>72</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>71</v>
       </c>
@@ -9421,7 +9421,7 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>20</v>
       </c>
@@ -9457,8 +9457,8 @@
         <v>1.5533653846153801</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" ref="L41:L60" si="4">J41/I41/H41</f>
-        <v>2.5951021623352566</v>
+        <f t="shared" ref="L41:L59" si="4">J41/$D$16</f>
+        <v>0.15969756503188712</v>
       </c>
       <c r="N41" s="2"/>
       <c r="P41" s="2"/>
@@ -9476,7 +9476,7 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>20</v>
       </c>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="L42" s="2">
         <f t="shared" si="4"/>
-        <v>1.6005178301332257</v>
+        <v>0.25279626202569955</v>
       </c>
       <c r="N42" s="2"/>
       <c r="P42" s="2"/>
@@ -9531,7 +9531,7 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>20</v>
       </c>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="L43" s="2">
         <f t="shared" si="4"/>
-        <v>1.0631847279077251</v>
+        <v>0.38055938365423841</v>
       </c>
       <c r="N43" s="2"/>
       <c r="P43" s="2"/>
@@ -9586,7 +9586,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <v>20</v>
       </c>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="L44" s="2">
         <f t="shared" si="4"/>
-        <v>0.81079408098906935</v>
+        <v>0.51114272544808159</v>
       </c>
       <c r="N44" s="2"/>
       <c r="P44" s="2"/>
@@ -9641,7 +9641,7 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <v>20</v>
       </c>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="L45" s="2">
         <f t="shared" si="4"/>
-        <v>0.65779276216225824</v>
+        <v>0.64431145768267328</v>
       </c>
       <c r="N45" s="2"/>
       <c r="P45" s="2"/>
@@ -9696,7 +9696,7 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <v>24</v>
       </c>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="L46" s="2">
         <f t="shared" si="4"/>
-        <v>2.7027418910493419</v>
+        <v>0.16863149888629334</v>
       </c>
       <c r="N46" s="2"/>
       <c r="P46" s="2"/>
@@ -9751,7 +9751,7 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <v>24</v>
       </c>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="L47" s="2">
         <f t="shared" si="4"/>
-        <v>1.6750828658627157</v>
+        <v>0.26686422123904768</v>
       </c>
       <c r="N47" s="2"/>
       <c r="P47" s="2"/>
@@ -9806,7 +9806,7 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
         <v>24</v>
       </c>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" si="4"/>
-        <v>1.1218502937264412</v>
+        <v>0.40155830414628996</v>
       </c>
       <c r="N48" s="2"/>
       <c r="P48" s="2"/>
@@ -9861,7 +9861,7 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>24</v>
       </c>
@@ -9898,7 +9898,7 @@
       </c>
       <c r="L49" s="2">
         <f t="shared" si="4"/>
-        <v>0.85694330247813955</v>
+        <v>0.54023622699468277</v>
       </c>
       <c r="N49" s="2"/>
       <c r="P49" s="2"/>
@@ -9916,7 +9916,7 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>24</v>
       </c>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="L50" s="2">
         <f t="shared" si="4"/>
-        <v>0.69327441988477512</v>
+        <v>0.68378574584489193</v>
       </c>
       <c r="N50" s="2"/>
       <c r="P50" s="2"/>
@@ -9971,7 +9971,7 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>28</v>
       </c>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="L51" s="2">
         <f t="shared" si="4"/>
-        <v>2.8586157797195386</v>
+        <v>0.17835689943998265</v>
       </c>
       <c r="N51" s="2"/>
       <c r="P51" s="2"/>
@@ -10026,7 +10026,7 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <v>28</v>
       </c>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="L52" s="2">
         <f t="shared" si="4"/>
-        <v>1.7330878745356508</v>
+        <v>0.27848544012201709</v>
       </c>
       <c r="N52" s="2"/>
       <c r="P52" s="2"/>
@@ -10081,7 +10081,7 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>28</v>
       </c>
@@ -10118,7 +10118,7 @@
       </c>
       <c r="L53" s="2">
         <f t="shared" si="4"/>
-        <v>1.157713639779637</v>
+        <v>0.41439533285026836</v>
       </c>
       <c r="N53" s="2"/>
       <c r="P53" s="2"/>
@@ -10136,7 +10136,7 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>28</v>
       </c>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="L54" s="2">
         <f t="shared" si="4"/>
-        <v>0.88181072510664438</v>
+        <v>0.56073149994051397</v>
       </c>
       <c r="N54" s="2"/>
       <c r="P54" s="2"/>
@@ -10191,7 +10191,7 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>28</v>
       </c>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="L55" s="2">
         <f t="shared" si="4"/>
-        <v>0.72245477204154651</v>
+        <v>0.7101053452984768</v>
       </c>
       <c r="N55" s="2"/>
       <c r="P55" s="2"/>
@@ -10246,7 +10246,7 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -10286,34 +10286,28 @@
       </c>
       <c r="L56" s="2">
         <f t="shared" si="4"/>
-        <v>3.1831604611326472</v>
+        <v>0.19860613458282445</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56:M59" si="5">L56</f>
-        <v>3.1831604611326472</v>
-      </c>
-      <c r="N56" s="2">
-        <v>3.16970341632276</v>
-      </c>
+        <v>0.19860613458282445</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="P56" s="2">
-        <v>7.16471874299652</v>
+        <v>4.1799999999999997E-2</v>
       </c>
       <c r="Q56" s="2">
-        <v>-21.990495492074899</v>
+        <v>0.58320000000000005</v>
       </c>
       <c r="R56" s="2">
-        <v>26.812271262513999</v>
+        <v>0.19650000000000001</v>
       </c>
       <c r="S56" s="2">
-        <v>-11.2290047833045</v>
+        <v>-5.3400000000000003E-2</v>
       </c>
       <c r="T56" s="2"/>
-      <c r="U56" s="49">
-        <v>-1.20785532486514E-5</v>
-      </c>
-      <c r="V56" s="2">
-        <v>2.0884468392078501</v>
-      </c>
+      <c r="U56" s="25"/>
+      <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
@@ -10322,7 +10316,7 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>32</v>
       </c>
@@ -10359,15 +10353,13 @@
       </c>
       <c r="L57" s="2">
         <f t="shared" si="4"/>
-        <v>1.9046720744513523</v>
+        <v>0.3034410059483465</v>
       </c>
       <c r="M57">
         <f t="shared" si="5"/>
-        <v>1.9046720744513523</v>
-      </c>
-      <c r="N57" s="2">
-        <v>1.94492812000738</v>
-      </c>
+        <v>0.3034410059483465</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -10383,7 +10375,7 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>32</v>
       </c>
@@ -10420,15 +10412,13 @@
       </c>
       <c r="L58" s="2">
         <f t="shared" si="4"/>
-        <v>1.2492492492492449</v>
+        <v>0.44972972972972813</v>
       </c>
       <c r="M58">
         <f t="shared" si="5"/>
-        <v>1.2492492492492449</v>
-      </c>
-      <c r="N58" s="2">
-        <v>1.1973740690628101</v>
-      </c>
+        <v>0.44972972972972813</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -10444,7 +10434,7 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
         <v>32</v>
       </c>
@@ -10481,15 +10471,13 @@
       </c>
       <c r="L59" s="2">
         <f t="shared" si="4"/>
-        <v>0.95027115590572597</v>
+        <v>0.60686914650408275</v>
       </c>
       <c r="M59">
         <f t="shared" si="5"/>
-        <v>0.95027115590572597</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0.98348382671943801</v>
-      </c>
+        <v>0.60686914650408275</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -10505,7 +10493,7 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
         <v>32</v>
       </c>
@@ -10541,16 +10529,14 @@
         <v>1.3024038461538501</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" si="4"/>
-        <v>0.76913139761826776</v>
+        <f>J60/$D$16</f>
+        <v>0.76649286989640097</v>
       </c>
       <c r="M60">
         <f>L60</f>
-        <v>0.76913139761826776</v>
-      </c>
-      <c r="N60" s="2">
-        <v>0.76099393278085403</v>
-      </c>
+        <v>0.76649286989640097</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -10566,7 +10552,7 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -10593,7 +10579,7 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -10620,7 +10606,7 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -10629,7 +10615,7 @@
         <v>32</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" ref="C63:M63" si="6">C60</f>
+        <f t="shared" ref="C63:L63" si="6">C60</f>
         <v>7</v>
       </c>
       <c r="D63" s="2">
@@ -10666,7 +10652,7 @@
       </c>
       <c r="L63" s="2">
         <f t="shared" si="6"/>
-        <v>0.76913139761826776</v>
+        <v>0.76649286989640097</v>
       </c>
       <c r="M63" s="2">
         <f>J63/$J$63</f>
@@ -10697,7 +10683,7 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
         <v>32</v>
       </c>
@@ -10760,7 +10746,7 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -10787,7 +10773,7 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -10796,7 +10782,7 @@
         <v>20</v>
       </c>
       <c r="C66" s="2">
-        <f t="shared" ref="C66:M66" si="11">C45</f>
+        <f t="shared" ref="C66:L66" si="11">C45</f>
         <v>7</v>
       </c>
       <c r="D66" s="2">
@@ -10833,7 +10819,7 @@
       </c>
       <c r="L66" s="2">
         <f t="shared" si="11"/>
-        <v>0.65779276216225824</v>
+        <v>0.64431145768267328</v>
       </c>
       <c r="M66">
         <f t="shared" ref="M66:M68" si="12">J66/$J$69</f>
@@ -10864,13 +10850,13 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
         <f>B50</f>
         <v>24</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" ref="C67:M67" si="13">C50</f>
+        <f t="shared" ref="C67:L67" si="13">C50</f>
         <v>7</v>
       </c>
       <c r="D67" s="2">
@@ -10907,7 +10893,7 @@
       </c>
       <c r="L67" s="2">
         <f t="shared" si="13"/>
-        <v>0.69327441988477512</v>
+        <v>0.68378574584489193</v>
       </c>
       <c r="M67">
         <f t="shared" si="12"/>
@@ -10932,13 +10918,13 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
         <f>B55</f>
         <v>28</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" ref="C68:M68" si="15">C55</f>
+        <f t="shared" ref="C68:L68" si="15">C55</f>
         <v>7</v>
       </c>
       <c r="D68" s="2">
@@ -10975,7 +10961,7 @@
       </c>
       <c r="L68" s="2">
         <f t="shared" si="15"/>
-        <v>0.72245477204154651</v>
+        <v>0.7101053452984768</v>
       </c>
       <c r="M68">
         <f t="shared" si="12"/>
@@ -11000,13 +10986,13 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
         <f>B60</f>
         <v>32</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" ref="C69:M69" si="16">C60</f>
+        <f t="shared" ref="C69:L69" si="16">C60</f>
         <v>7</v>
       </c>
       <c r="D69" s="2">
@@ -11043,7 +11029,7 @@
       </c>
       <c r="L69" s="2">
         <f t="shared" si="16"/>
-        <v>0.76913139761826776</v>
+        <v>0.76649286989640097</v>
       </c>
       <c r="M69">
         <f>J69/$J$69</f>
@@ -11068,7 +11054,7 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -11095,7 +11081,7 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -11122,7 +11108,7 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -11149,7 +11135,7 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -11176,7 +11162,7 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -11203,7 +11189,7 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -11230,7 +11216,7 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -11257,7 +11243,7 @@
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -11284,7 +11270,7 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -11311,7 +11297,7 @@
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -11338,7 +11324,7 @@
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -11365,7 +11351,7 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
     </row>
-    <row r="81" spans="2:29">
+    <row r="81" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -11391,7 +11377,7 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
     </row>
-    <row r="82" spans="2:29">
+    <row r="82" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -11417,7 +11403,7 @@
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
     </row>
-    <row r="83" spans="2:29">
+    <row r="83" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -11443,7 +11429,7 @@
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
     </row>
-    <row r="84" spans="2:29">
+    <row r="84" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -11455,7 +11441,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="2:29">
+    <row r="85" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -11467,7 +11453,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="2:29">
+    <row r="86" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -11478,7 +11464,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="2:29">
+    <row r="87" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -11489,7 +11475,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="2:29">
+    <row r="88" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -11500,7 +11486,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="2:29">
+    <row r="89" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -11511,7 +11497,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="2:29">
+    <row r="90" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -11522,7 +11508,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="2:29">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -11545,7 +11531,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="2:29">
+    <row r="92" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -11568,7 +11554,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="2:29">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -11579,7 +11565,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="2:29">
+    <row r="94" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -11590,7 +11576,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="2:29">
+    <row r="95" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -11601,7 +11587,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="2:29">
+    <row r="96" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -11612,7 +11598,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="2:12">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -11623,7 +11609,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="2:12">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -11634,7 +11620,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="2:12">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -11645,7 +11631,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="2:12">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -11656,7 +11642,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="2:12">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -11667,7 +11653,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="2:12">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -11678,7 +11664,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="2:12">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -11689,7 +11675,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="2:12">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -11700,7 +11686,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="2:12">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -11711,7 +11697,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="2:12">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -11722,7 +11708,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="2:12">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -11733,7 +11719,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="2:12">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -11744,7 +11730,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="2:12">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -11755,7 +11741,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="2:12">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -11766,18 +11752,54 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="2:12">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="2:12">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="B30:C30"/>
@@ -11794,42 +11816,6 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11846,66 +11832,66 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="28" t="s">
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="35"/>
       <c r="L4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25" t="s">
+      <c r="E5" s="35"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="L6" s="25"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L6" s="26"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -11925,7 +11911,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -11968,16 +11954,16 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="3">
         <v>150</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="49" t="s">
         <v>16</v>
       </c>
       <c r="F8">
@@ -12021,16 +12007,16 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="3">
         <v>49.8</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="46"/>
       <c r="F9">
         <f>D9*9.76*2</f>
         <v>972.09599999999989</v>
@@ -12042,16 +12028,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="13.25" customHeight="1">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:31" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="3">
         <v>430</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="46"/>
       <c r="M10" t="s">
         <v>29</v>
       </c>
@@ -12062,16 +12048,16 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="46"/>
       <c r="M11" t="s">
         <v>84</v>
       </c>
@@ -12088,16 +12074,16 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="6">
         <v>46</v>
       </c>
-      <c r="E12" s="45"/>
+      <c r="E12" s="47"/>
       <c r="L12" t="s">
         <v>83</v>
       </c>
@@ -12126,16 +12112,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="7">
         <v>150</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="45" t="s">
         <v>23</v>
       </c>
       <c r="AD13">
@@ -12145,16 +12131,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="7">
         <v>50</v>
       </c>
-      <c r="E14" s="44"/>
+      <c r="E14" s="46"/>
       <c r="AD14">
         <v>5</v>
       </c>
@@ -12162,16 +12148,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="13.25" customHeight="1">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:31" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="7">
         <v>430</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="46"/>
       <c r="AD15">
         <v>10</v>
       </c>
@@ -12179,16 +12165,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="44"/>
+      <c r="E16" s="46"/>
       <c r="AD16">
         <v>24</v>
       </c>
@@ -12196,16 +12182,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="6">
         <v>46</v>
       </c>
-      <c r="E17" s="45"/>
+      <c r="E17" s="47"/>
       <c r="AD17">
         <v>35</v>
       </c>
@@ -12213,7 +12199,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -12223,7 +12209,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="J19" t="s">
         <v>79</v>
       </c>
@@ -12240,7 +12226,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -12314,7 +12300,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -12361,7 +12347,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>40</v>
       </c>
@@ -12397,7 +12383,7 @@
         <v>1.2576953619078699</v>
       </c>
       <c r="L22">
-        <f>$AD$8+$AD$9*C22+$AD$10*C22^2+$AD$11*B22+$AD$12*B22^2+$AD$13*B22*C22</f>
+        <f t="shared" ref="L22:L51" si="1">$AD$8+$AD$9*C22+$AD$10*C22^2+$AD$11*B22+$AD$12*B22^2+$AD$13*B22*C22</f>
         <v>0.74448099999999984</v>
       </c>
       <c r="M22">
@@ -12451,7 +12437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="13.25" customHeight="1">
+    <row r="23" spans="1:31" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>35</v>
       </c>
@@ -12459,7 +12445,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:D51" si="1">E23/$D$8</f>
+        <f t="shared" ref="D23:D51" si="2">E23/$D$8</f>
         <v>0.9</v>
       </c>
       <c r="E23">
@@ -12473,11 +12459,11 @@
         <v>2.7720739219712525</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H51" si="2">F23/E23</f>
+        <f t="shared" ref="H23:H51" si="3">F23/E23</f>
         <v>0.36074074074074075</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I51" si="3">H23/$H$33</f>
+        <f t="shared" ref="I23:I51" si="4">H23/$H$33</f>
         <v>1.0865684962070505</v>
       </c>
       <c r="J23">
@@ -12487,11 +12473,11 @@
         <v>1.0883323458185801</v>
       </c>
       <c r="L23">
-        <f>$AD$8+$AD$9*C23+$AD$10*C23^2+$AD$11*B23+$AD$12*B23^2+$AD$13*B23*C23</f>
+        <f t="shared" si="1"/>
         <v>0.87229000000000012</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M51" si="4">$AD$28+$AD$29*C23+$AD$30*C23^2+$AD$31*B23+$AD$32*B23^2+$AD$33*B23*C23</f>
+        <f t="shared" ref="M23:M51" si="5">$AD$28+$AD$29*C23+$AD$30*C23^2+$AD$31*B23+$AD$32*B23^2+$AD$33*B23*C23</f>
         <v>1.2231079999999999</v>
       </c>
       <c r="O23">
@@ -12508,22 +12494,22 @@
         <v>0.4</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:S41" si="5">R23*$D$8</f>
+        <f t="shared" ref="S23:S41" si="6">R23*$D$8</f>
         <v>60</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:T41" si="6">S23/U23</f>
+        <f t="shared" ref="T23:T41" si="7">S23/U23</f>
         <v>7.7625570776255737</v>
       </c>
       <c r="U23">
         <v>7.7294117647058798</v>
       </c>
       <c r="V23">
-        <f t="shared" ref="V23:V41" si="7">S23/O23</f>
+        <f t="shared" ref="V23:V41" si="8">S23/O23</f>
         <v>0.34883720930232559</v>
       </c>
       <c r="W23">
-        <f t="shared" ref="W23:W41" si="8">T23/O23</f>
+        <f t="shared" ref="W23:W41" si="9">T23/O23</f>
         <v>4.5131145800148681E-2</v>
       </c>
       <c r="X23">
@@ -12534,11 +12520,11 @@
         <v>0.222948576676263</v>
       </c>
       <c r="Z23">
-        <f t="shared" ref="Z23:Z41" si="9">$AD$48+$AD$49*V23+$AD$50*V23^2</f>
+        <f t="shared" ref="Z23:Z41" si="10">$AD$48+$AD$49*V23+$AD$50*V23^2</f>
         <v>0.38865171011357491</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>30</v>
       </c>
@@ -12546,7 +12532,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96</v>
       </c>
       <c r="E24">
@@ -12560,11 +12546,11 @@
         <v>3.2727272727272729</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30555555555555558</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.920348058902276</v>
       </c>
       <c r="J24">
@@ -12574,11 +12560,11 @@
         <v>0.94196370946496799</v>
       </c>
       <c r="L24">
-        <f>$AD$8+$AD$9*C24+$AD$10*C24^2+$AD$11*B24+$AD$12*B24^2+$AD$13*B24*C24</f>
+        <f t="shared" si="1"/>
         <v>0.95295699999999994</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.083383</v>
       </c>
       <c r="O24">
@@ -12595,22 +12581,22 @@
         <v>0.60232558139534897</v>
       </c>
       <c r="S24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90.348837209302346</v>
       </c>
       <c r="T24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.548449612403104</v>
       </c>
       <c r="U24">
         <v>7.2</v>
       </c>
       <c r="V24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.52528393726338574</v>
       </c>
       <c r="W24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2956102397692471E-2</v>
       </c>
       <c r="X24">
@@ -12621,14 +12607,14 @@
         <v>0.37926513167771397</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.51546851115745707</v>
       </c>
       <c r="AD24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>25</v>
       </c>
@@ -12636,7 +12622,7 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.02</v>
       </c>
       <c r="E25">
@@ -12650,11 +12636,11 @@
         <v>3.8250000000000002</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26143790849673204</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.78746357980943393</v>
       </c>
       <c r="J25">
@@ -12664,11 +12650,11 @@
         <v>0.81858945284703</v>
       </c>
       <c r="L25">
-        <f>$AD$8+$AD$9*C25+$AD$10*C25^2+$AD$11*B25+$AD$12*B25^2+$AD$13*B25*C25</f>
+        <f t="shared" si="1"/>
         <v>0.98648199999999997</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9679580000000001</v>
       </c>
       <c r="O25">
@@ -12685,22 +12671,22 @@
         <v>0.80232558139534904</v>
       </c>
       <c r="S25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120.34883720930236</v>
       </c>
       <c r="T25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.531976744186061</v>
       </c>
       <c r="U25">
         <v>6.49411764705882</v>
       </c>
       <c r="V25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.69970254191454861</v>
       </c>
       <c r="W25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10774405083829106</v>
       </c>
       <c r="X25">
@@ -12711,11 +12697,11 @@
         <v>0.57254272391218397</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.66920551352831759</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>20</v>
       </c>
@@ -12723,7 +12709,7 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="E26">
@@ -12737,11 +12723,11 @@
         <v>4.3478260869565224</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69277108433734946</v>
       </c>
       <c r="J26">
@@ -12751,11 +12737,11 @@
         <v>0.71820957596476798</v>
       </c>
       <c r="L26">
-        <f>$AD$8+$AD$9*C26+$AD$10*C26^2+$AD$11*B26+$AD$12*B26^2+$AD$13*B26*C26</f>
+        <f t="shared" si="1"/>
         <v>0.97286499999999998</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.87683299999999997</v>
       </c>
       <c r="O26">
@@ -12772,22 +12758,22 @@
         <v>1.13953488372093</v>
       </c>
       <c r="S26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170.93023255813949</v>
       </c>
       <c r="T26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34.347682665347207</v>
       </c>
       <c r="U26">
         <v>4.9764705882352898</v>
       </c>
       <c r="V26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.99378042184964821</v>
       </c>
       <c r="W26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.19969582944969308</v>
       </c>
       <c r="X26">
@@ -12798,14 +12784,14 @@
         <v>0.98567353427400906</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.99230064165858112</v>
       </c>
       <c r="AD26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>15</v>
       </c>
@@ -12813,7 +12799,7 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1066666666666667</v>
       </c>
       <c r="E27">
@@ -12827,11 +12813,11 @@
         <v>4.8396501457725956</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20662650602409638</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.62236899404848312</v>
       </c>
       <c r="J27">
@@ -12841,11 +12827,11 @@
         <v>0.64082407881818204</v>
       </c>
       <c r="L27">
-        <f>$AD$8+$AD$9*C27+$AD$10*C27^2+$AD$11*B27+$AD$12*B27^2+$AD$13*B27*C27</f>
+        <f t="shared" si="1"/>
         <v>0.91210599999999997</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81000799999999995</v>
       </c>
       <c r="O27">
@@ -12862,22 +12848,22 @@
         <v>9.0697674418604712E-2</v>
       </c>
       <c r="S27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.604651162790708</v>
       </c>
       <c r="T27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0076308139534911</v>
       </c>
       <c r="U27">
         <v>6.7764705882352896</v>
       </c>
       <c r="V27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.1955729896329557E-2</v>
       </c>
       <c r="W27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2094161529840308E-2</v>
       </c>
       <c r="X27">
@@ -12888,7 +12874,7 @@
         <v>6.1447006712869498E-2</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25170148060149661</v>
       </c>
       <c r="AD27" t="s">
@@ -12898,7 +12884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="13.25" customHeight="1">
+    <row r="28" spans="1:31" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>10</v>
       </c>
@@ -12906,7 +12892,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="E28">
@@ -12920,11 +12906,11 @@
         <v>5.0602409638554215</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19761904761904764</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.59523809523809534</v>
       </c>
       <c r="J28">
@@ -12934,11 +12920,11 @@
         <v>0.58643296140727197</v>
       </c>
       <c r="L28">
-        <f>$AD$8+$AD$9*C28+$AD$10*C28^2+$AD$11*B28+$AD$12*B28^2+$AD$13*B28*C28</f>
+        <f t="shared" si="1"/>
         <v>0.80420500000000006</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76748300000000003</v>
       </c>
       <c r="O28">
@@ -12955,22 +12941,22 @@
         <v>0.40232558139534902</v>
       </c>
       <c r="S28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.348837209302353</v>
       </c>
       <c r="T28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.446871386354875</v>
       </c>
       <c r="U28">
         <v>6.3882352941176501</v>
       </c>
       <c r="V28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.36354721210423102</v>
       </c>
       <c r="W28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6908863773222136E-2</v>
       </c>
       <c r="X28">
@@ -12981,7 +12967,7 @@
         <v>0.23447359811778901</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.39812093285177835</v>
       </c>
       <c r="AD28">
@@ -12991,7 +12977,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>5</v>
       </c>
@@ -12999,7 +12985,7 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="E29">
@@ -13013,11 +12999,11 @@
         <v>5.2173913043478253</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19166666666666668</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.57730923694779124</v>
       </c>
       <c r="J29">
@@ -13027,11 +13013,11 @@
         <v>0.55503622373203898</v>
       </c>
       <c r="L29">
-        <f>$AD$8+$AD$9*C29+$AD$10*C29^2+$AD$11*B29+$AD$12*B29^2+$AD$13*B29*C29</f>
+        <f t="shared" si="1"/>
         <v>0.64916200000000002</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.74925799999999998</v>
       </c>
       <c r="O29">
@@ -13048,22 +13034,22 @@
         <v>0.60232558139534897</v>
       </c>
       <c r="S29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90.348837209302346</v>
       </c>
       <c r="T29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.237403100775204</v>
       </c>
       <c r="U29">
         <v>5.9294117647058799</v>
       </c>
       <c r="V29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.54427010367049611</v>
       </c>
       <c r="W29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.1791584944428933E-2</v>
       </c>
       <c r="X29">
@@ -13074,7 +13060,7 @@
         <v>0.39843519569334401</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.53083496312248291</v>
       </c>
       <c r="AD29">
@@ -13084,7 +13070,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>0</v>
       </c>
@@ -13092,7 +13078,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="E30">
@@ -13106,11 +13092,11 @@
         <v>5.333333333333333</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1875</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.56475903614457834</v>
       </c>
       <c r="J30">
@@ -13120,11 +13106,11 @@
         <v>0.54663386579248097</v>
       </c>
       <c r="L30">
-        <f>$AD$8+$AD$9*C30+$AD$10*C30^2+$AD$11*B30+$AD$12*B30^2+$AD$13*B30*C30</f>
+        <f t="shared" si="1"/>
         <v>0.44697700000000001</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75533300000000003</v>
       </c>
       <c r="O30">
@@ -13141,22 +13127,22 @@
         <v>0.80232558139534904</v>
       </c>
       <c r="S30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120.34883720930236</v>
       </c>
       <c r="T30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.286821705426362</v>
       </c>
       <c r="U30">
         <v>5.4</v>
       </c>
       <c r="V30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.7249929952367612</v>
       </c>
       <c r="W30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1342579620808817</v>
       </c>
       <c r="X30">
@@ -13167,7 +13153,7 @@
         <v>0.60376645128418105</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.69383923871181152</v>
       </c>
       <c r="AD30">
@@ -13177,7 +13163,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>-5</v>
       </c>
@@ -13185,7 +13171,7 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="E31">
@@ -13199,11 +13185,11 @@
         <v>5.4368932038834954</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18392857142857141</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55400172117039592</v>
       </c>
       <c r="J31">
@@ -13213,11 +13199,11 @@
         <v>0.56122588758859904</v>
       </c>
       <c r="L31">
-        <f>$AD$8+$AD$9*C31+$AD$10*C31^2+$AD$11*B31+$AD$12*B31^2+$AD$13*B31*C31</f>
+        <f t="shared" si="1"/>
         <v>0.19765000000000002</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78570800000000007</v>
       </c>
       <c r="O31">
@@ -13234,22 +13220,22 @@
         <v>1.1046511627907001</v>
       </c>
       <c r="S31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165.697674418605</v>
       </c>
       <c r="T31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38.168840990735525</v>
       </c>
       <c r="U31">
         <v>4.3411764705882403</v>
       </c>
       <c r="V31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.99817876155786145</v>
       </c>
       <c r="W31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22993277705262363</v>
       </c>
       <c r="X31">
@@ -13260,7 +13246,7 @@
         <v>0.99268390197322698</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.99774173267641264</v>
       </c>
       <c r="AD31">
@@ -13270,7 +13256,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>40</v>
       </c>
@@ -13278,7 +13264,7 @@
         <v>7</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
       <c r="E32">
@@ -13292,11 +13278,11 @@
         <v>2.549728752260398</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39219858156028364</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1813210287960352</v>
       </c>
       <c r="J32">
@@ -13306,11 +13292,11 @@
         <v>1.1710184244641599</v>
       </c>
       <c r="L32">
-        <f>$AD$8+$AD$9*C32+$AD$10*C32^2+$AD$11*B32+$AD$12*B32^2+$AD$13*B32*C32</f>
+        <f t="shared" si="1"/>
         <v>0.78959907999999979</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2815176399999999</v>
       </c>
       <c r="O32">
@@ -13327,22 +13313,22 @@
         <v>8.8372093023255799E-2</v>
       </c>
       <c r="S32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.255813953488369</v>
       </c>
       <c r="T32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4231057764441091</v>
       </c>
       <c r="U32">
         <v>5.4705882352941204</v>
       </c>
       <c r="V32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.3897556667647907E-2</v>
       </c>
       <c r="W32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5336112509139931E-2</v>
       </c>
       <c r="X32">
@@ -13353,7 +13339,7 @@
         <v>6.22962665085596E-2</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25245936554626763</v>
       </c>
       <c r="AD32">
@@ -13363,7 +13349,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="2:31">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>35</v>
       </c>
@@ -13371,7 +13357,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E33" s="1">
@@ -13385,11 +13371,11 @@
         <v>3.0120481927710845</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33199999999999996</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J33" s="1">
@@ -13399,11 +13385,11 @@
         <v>1.0101748839007001</v>
       </c>
       <c r="L33">
-        <f>$AD$8+$AD$9*C33+$AD$10*C33^2+$AD$11*B33+$AD$12*B33^2+$AD$13*B33*C33</f>
+        <f t="shared" si="1"/>
         <v>0.92084247999999969</v>
       </c>
       <c r="M33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1296426400000001</v>
       </c>
       <c r="O33">
@@ -13420,22 +13406,22 @@
         <v>0.4</v>
       </c>
       <c r="S33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="T33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.409395973154371</v>
       </c>
       <c r="U33">
         <v>5.2588235294117602</v>
       </c>
       <c r="V33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.379746835443038</v>
       </c>
       <c r="W33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.2211366918698547E-2</v>
       </c>
       <c r="X33">
@@ -13446,7 +13432,7 @@
         <v>0.24748283036764401</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.40878125508732582</v>
       </c>
       <c r="AD33">
@@ -13456,7 +13442,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="2:31">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>30</v>
       </c>
@@ -13464,7 +13450,7 @@
         <v>7</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0533333333333332</v>
       </c>
       <c r="E34">
@@ -13478,11 +13464,11 @@
         <v>3.5111111111111111</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2848101265822785</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.85786182705505587</v>
       </c>
       <c r="J34">
@@ -13492,11 +13478,11 @@
         <v>0.872325723072915</v>
       </c>
       <c r="L34">
-        <f>$AD$8+$AD$9*C34+$AD$10*C34^2+$AD$11*B34+$AD$12*B34^2+$AD$13*B34*C34</f>
+        <f t="shared" si="1"/>
         <v>1.0049438799999999</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0020676399999999</v>
       </c>
       <c r="O34">
@@ -13513,22 +13499,22 @@
         <v>0.60232558139534897</v>
       </c>
       <c r="S34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90.348837209302346</v>
       </c>
       <c r="T34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.155203694540678</v>
       </c>
       <c r="U34">
         <v>4.9764705882352898</v>
       </c>
       <c r="V34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.57182808360317938</v>
       </c>
       <c r="W34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1149063524970929</v>
       </c>
       <c r="X34">
@@ -13539,7 +13525,7 @@
         <v>0.42707243836703701</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.55373379504210252</v>
       </c>
       <c r="AD34">
@@ -13549,7 +13535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:31">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>25</v>
       </c>
@@ -13557,7 +13543,7 @@
         <v>7</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1066666666666667</v>
       </c>
       <c r="E35">
@@ -13571,11 +13557,11 @@
         <v>4.0487804878048781</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24698795180722891</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.74393961387719554</v>
       </c>
       <c r="J35">
@@ -13585,11 +13571,11 @@
         <v>0.757470941980806</v>
       </c>
       <c r="L35">
-        <f>$AD$8+$AD$9*C35+$AD$10*C35^2+$AD$11*B35+$AD$12*B35^2+$AD$13*B35*C35</f>
+        <f t="shared" si="1"/>
         <v>1.0419032799999999</v>
       </c>
       <c r="M35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89879263999999992</v>
       </c>
       <c r="O35">
@@ -13606,22 +13592,22 @@
         <v>0.8</v>
       </c>
       <c r="S35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="T35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26.562499999999996</v>
       </c>
       <c r="U35">
         <v>4.5176470588235302</v>
       </c>
       <c r="V35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.759493670886076</v>
       </c>
       <c r="W35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.16811708860759492</v>
       </c>
       <c r="X35">
@@ -13632,7 +13618,7 @@
         <v>0.64766761031920606</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.72840057731132846</v>
       </c>
       <c r="AD35">
@@ -13642,7 +13628,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:31">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>20</v>
       </c>
@@ -13650,7 +13636,7 @@
         <v>7</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1466666666666667</v>
       </c>
       <c r="E36">
@@ -13664,11 +13650,11 @@
         <v>4.5623342175066313</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21918604651162793</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66019893527598783</v>
       </c>
       <c r="J36">
@@ -13678,11 +13664,11 @@
         <v>0.66561054062437297</v>
       </c>
       <c r="L36">
-        <f>$AD$8+$AD$9*C36+$AD$10*C36^2+$AD$11*B36+$AD$12*B36^2+$AD$13*B36*C36</f>
+        <f t="shared" si="1"/>
         <v>1.0317206800000001</v>
       </c>
       <c r="M36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8198176399999999</v>
       </c>
       <c r="O36">
@@ -13699,22 +13685,22 @@
         <v>1.0511627906976699</v>
       </c>
       <c r="S36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>157.6744186046505</v>
       </c>
       <c r="T36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40.985705141881645</v>
       </c>
       <c r="U36">
         <v>3.8470588235294101</v>
       </c>
       <c r="V36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.99793935825728164</v>
       </c>
       <c r="W36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.25940319710051674</v>
       </c>
       <c r="X36">
@@ -13725,7 +13711,7 @@
         <v>0.99230169332907903</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.99744511032712979</v>
       </c>
       <c r="AD36">
@@ -13735,7 +13721,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="2:31">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>15</v>
       </c>
@@ -13743,7 +13729,7 @@
         <v>7</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1866666666666668</v>
       </c>
       <c r="E37">
@@ -13757,11 +13743,11 @@
         <v>5.0712250712250713</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19719101123595506</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.59394882902396107</v>
       </c>
       <c r="J37">
@@ -13771,11 +13757,11 @@
         <v>0.59674451900361702</v>
       </c>
       <c r="L37">
-        <f>$AD$8+$AD$9*C37+$AD$10*C37^2+$AD$11*B37+$AD$12*B37^2+$AD$13*B37*C37</f>
+        <f t="shared" si="1"/>
         <v>0.97439607999999978</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76514263999999987</v>
       </c>
       <c r="O37">
@@ -13792,22 +13778,22 @@
         <v>8.3720930232558097E-2</v>
       </c>
       <c r="S37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.558139534883715</v>
       </c>
       <c r="T37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0940343781597592</v>
       </c>
       <c r="U37">
         <v>4.0588235294117601</v>
       </c>
       <c r="V37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.3720930232558097E-2</v>
       </c>
       <c r="W37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0626895854398395E-2</v>
       </c>
       <c r="X37">
@@ -13818,7 +13804,7 @@
         <v>6.2218821071413098E-2</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25239028458626284</v>
       </c>
       <c r="AD37">
@@ -13828,7 +13814,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="2:31">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>10</v>
       </c>
@@ -13836,7 +13822,7 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1933333333333334</v>
       </c>
       <c r="E38">
@@ -13850,11 +13836,11 @@
         <v>5.28023598820059</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18938547486033519</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.57043817729016633</v>
       </c>
       <c r="J38">
@@ -13864,11 +13850,11 @@
         <v>0.55087287711853605</v>
       </c>
       <c r="L38">
-        <f>$AD$8+$AD$9*C38+$AD$10*C38^2+$AD$11*B38+$AD$12*B38^2+$AD$13*B38*C38</f>
+        <f t="shared" si="1"/>
         <v>0.86992947999999992</v>
       </c>
       <c r="M38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73476763999999994</v>
       </c>
       <c r="O38">
@@ -13885,22 +13871,22 @@
         <v>0.40232558139534902</v>
       </c>
       <c r="S38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.348837209302353</v>
       </c>
       <c r="T38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.998980008159926</v>
       </c>
       <c r="U38">
         <v>4.0235294117647102</v>
       </c>
       <c r="V38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.40232558139534902</v>
       </c>
       <c r="W38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.9993200054399503E-2</v>
       </c>
       <c r="X38">
@@ -13911,14 +13897,14 @@
         <v>0.26616938369901599</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.42404543115197413</v>
       </c>
       <c r="AE38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="2:31">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>5</v>
       </c>
@@ -13926,7 +13912,7 @@
         <v>7</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1933333333333334</v>
       </c>
       <c r="E39">
@@ -13940,11 +13926,11 @@
         <v>5.4407294832826754</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18379888268156425</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55361109241435025</v>
       </c>
       <c r="J39">
@@ -13954,11 +13940,11 @@
         <v>0.52799561496913106</v>
       </c>
       <c r="L39">
-        <f>$AD$8+$AD$9*C39+$AD$10*C39^2+$AD$11*B39+$AD$12*B39^2+$AD$13*B39*C39</f>
+        <f t="shared" si="1"/>
         <v>0.71832087999999994</v>
       </c>
       <c r="M39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72869263999999989</v>
       </c>
       <c r="O39">
@@ -13975,22 +13961,22 @@
         <v>0.60232558139534897</v>
       </c>
       <c r="S39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90.348837209302346</v>
       </c>
       <c r="T39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.924146924581645</v>
       </c>
       <c r="U39">
         <v>3.77647058823529</v>
       </c>
       <c r="V39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.60232558139534897</v>
       </c>
       <c r="W39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1594943128305443</v>
       </c>
       <c r="X39">
@@ -14001,14 +13987,14 @@
         <v>0.459885648239025</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5798961892915091</v>
       </c>
       <c r="AE39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="2:31">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>0</v>
       </c>
@@ -14016,7 +14002,7 @@
         <v>7</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1933333333333334</v>
       </c>
       <c r="E40">
@@ -14030,11 +14016,11 @@
         <v>5.5763239875389408</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17932960893854749</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5401494245136973</v>
       </c>
       <c r="J40">
@@ -14044,11 +14030,11 @@
         <v>0.52811273255540303</v>
       </c>
       <c r="L40">
-        <f>$AD$8+$AD$9*C40+$AD$10*C40^2+$AD$11*B40+$AD$12*B40^2+$AD$13*B40*C40</f>
+        <f t="shared" si="1"/>
         <v>0.51957027999999994</v>
       </c>
       <c r="M40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.74691763999999994</v>
       </c>
       <c r="O40">
@@ -14065,22 +14051,22 @@
         <v>0.79767441860465094</v>
       </c>
       <c r="S40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>119.65116279069764</v>
       </c>
       <c r="T40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34.593023255813989</v>
       </c>
       <c r="U40">
         <v>3.45882352941176</v>
       </c>
       <c r="V40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.79767441860465094</v>
       </c>
       <c r="W40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.23062015503875993</v>
       </c>
       <c r="X40">
@@ -14091,14 +14077,14 @@
         <v>0.69800905198492302</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.76793526836127612</v>
       </c>
       <c r="AE40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="2:31">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>-5</v>
       </c>
@@ -14106,7 +14092,7 @@
         <v>7</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1933333333333334</v>
       </c>
       <c r="E41">
@@ -14120,11 +14106,11 @@
         <v>5.6825396825396828</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17597765363128492</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.53005317358820769</v>
       </c>
       <c r="J41">
@@ -14134,11 +14120,11 @@
         <v>0.55122422987734998</v>
       </c>
       <c r="L41">
-        <f>$AD$8+$AD$9*C41+$AD$10*C41^2+$AD$11*B41+$AD$12*B41^2+$AD$13*B41*C41</f>
+        <f t="shared" si="1"/>
         <v>0.27367767999999992</v>
       </c>
       <c r="M41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78944263999999997</v>
       </c>
       <c r="O41">
@@ -14155,22 +14141,22 @@
         <v>1</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.82926829268299</v>
       </c>
       <c r="U41" s="1">
         <v>2.8941176470588199</v>
       </c>
       <c r="V41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.34552845528455328</v>
       </c>
       <c r="X41">
@@ -14181,14 +14167,14 @@
         <v>0.99559388645548996</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AE41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="2:31">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>40</v>
       </c>
@@ -14196,7 +14182,7 @@
         <v>9</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.04</v>
       </c>
       <c r="E42">
@@ -14210,11 +14196,11 @@
         <v>2.7610619469026547</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36217948717948717</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0909020698177325</v>
       </c>
       <c r="J42">
@@ -14224,18 +14210,18 @@
         <v>1.0998256374720701</v>
       </c>
       <c r="L42">
-        <f>$AD$8+$AD$9*C42+$AD$10*C42^2+$AD$11*B42+$AD$12*B42^2+$AD$13*B42*C42</f>
+        <f t="shared" si="1"/>
         <v>0.83298051999999989</v>
       </c>
       <c r="M42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2119051599999999</v>
       </c>
       <c r="AD42" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:31">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>35</v>
       </c>
@@ -14243,7 +14229,7 @@
         <v>9</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0866666666666667</v>
       </c>
       <c r="E43">
@@ -14257,11 +14243,11 @@
         <v>3.2086614173228347</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31165644171779139</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93872422204154038</v>
       </c>
       <c r="J43">
@@ -14271,15 +14257,15 @@
         <v>0.947501572434442</v>
       </c>
       <c r="L43">
-        <f>$AD$8+$AD$9*C43+$AD$10*C43^2+$AD$11*B43+$AD$12*B43^2+$AD$13*B43*C43</f>
+        <f t="shared" si="1"/>
         <v>0.96765831999999974</v>
       </c>
       <c r="M43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.07218016</v>
       </c>
     </row>
-    <row r="44" spans="2:31">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>30</v>
       </c>
@@ -14287,7 +14273,7 @@
         <v>9</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1333333333333333</v>
       </c>
       <c r="E44">
@@ -14301,11 +14287,11 @@
         <v>3.6956521739130435</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27058823529411763</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.81502480510276398</v>
       </c>
       <c r="J44">
@@ -14315,18 +14301,18 @@
         <v>0.81817188713248601</v>
       </c>
       <c r="L44">
-        <f>$AD$8+$AD$9*C44+$AD$10*C44^2+$AD$11*B44+$AD$12*B44^2+$AD$13*B44*C44</f>
+        <f t="shared" si="1"/>
         <v>1.0551941200000001</v>
       </c>
       <c r="M44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95675515999999994</v>
       </c>
       <c r="AD44" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="2:31">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>25</v>
       </c>
@@ -14334,7 +14320,7 @@
         <v>9</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1733333333333333</v>
       </c>
       <c r="E45">
@@ -14348,11 +14334,11 @@
         <v>4.2105263157894743</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23749999999999999</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.71536144578313254</v>
       </c>
       <c r="J45">
@@ -14362,15 +14348,15 @@
         <v>0.71183658156620699</v>
       </c>
       <c r="L45">
-        <f>$AD$8+$AD$9*C45+$AD$10*C45^2+$AD$11*B45+$AD$12*B45^2+$AD$13*B45*C45</f>
+        <f t="shared" si="1"/>
         <v>1.09558792</v>
       </c>
       <c r="M45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86563016000000004</v>
       </c>
     </row>
-    <row r="46" spans="2:31">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>20</v>
       </c>
@@ -14378,7 +14364,7 @@
         <v>9</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2133333333333334</v>
       </c>
       <c r="E46">
@@ -14392,11 +14378,11 @@
         <v>4.7272727272727275</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21153846153846154</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.63716404077849864</v>
       </c>
       <c r="J46">
@@ -14406,18 +14392,18 @@
         <v>0.62849565573560295</v>
       </c>
       <c r="L46">
-        <f>$AD$8+$AD$9*C46+$AD$10*C46^2+$AD$11*B46+$AD$12*B46^2+$AD$13*B46*C46</f>
+        <f t="shared" si="1"/>
         <v>1.0888397199999997</v>
       </c>
       <c r="M46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.79880516000000001</v>
       </c>
       <c r="AD46" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="2:31">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>15</v>
       </c>
@@ -14425,7 +14411,7 @@
         <v>9</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.24</v>
       </c>
       <c r="E47">
@@ -14439,11 +14425,11 @@
         <v>5.1955307262569841</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19247311827956987</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.57973830807099369</v>
       </c>
       <c r="J47">
@@ -14453,11 +14439,11 @@
         <v>0.568149109640676</v>
       </c>
       <c r="L47">
-        <f>$AD$8+$AD$9*C47+$AD$10*C47^2+$AD$11*B47+$AD$12*B47^2+$AD$13*B47*C47</f>
+        <f t="shared" si="1"/>
         <v>1.0349495199999998</v>
       </c>
       <c r="M47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75628016000000009</v>
       </c>
       <c r="AD47" t="s">
@@ -14467,7 +14453,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="2:31">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>10</v>
       </c>
@@ -14475,7 +14461,7 @@
         <v>9</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2533333333333334</v>
       </c>
       <c r="E48">
@@ -14489,11 +14475,11 @@
         <v>5.4492753623188408</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18351063829787234</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55274288643937464</v>
       </c>
       <c r="J48">
@@ -14503,11 +14489,11 @@
         <v>0.53079694328142402</v>
       </c>
       <c r="L48">
-        <f>$AD$8+$AD$9*C48+$AD$10*C48^2+$AD$11*B48+$AD$12*B48^2+$AD$13*B48*C48</f>
+        <f t="shared" si="1"/>
         <v>0.93391731999999994</v>
       </c>
       <c r="M48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73805516000000004</v>
       </c>
       <c r="AD48">
@@ -14517,7 +14503,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="2:31">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>5</v>
       </c>
@@ -14525,7 +14511,7 @@
         <v>9</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2533333333333334</v>
       </c>
       <c r="E49">
@@ -14539,11 +14525,11 @@
         <v>5.6119402985074629</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17819148936170212</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.53672135349910288</v>
       </c>
       <c r="J49">
@@ -14553,11 +14539,11 @@
         <v>0.51643915665784901</v>
       </c>
       <c r="L49">
-        <f>$AD$8+$AD$9*C49+$AD$10*C49^2+$AD$11*B49+$AD$12*B49^2+$AD$13*B49*C49</f>
+        <f t="shared" si="1"/>
         <v>0.78574311999999991</v>
       </c>
       <c r="M49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.74413015999999998</v>
       </c>
       <c r="AD49">
@@ -14567,7 +14553,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="2:31">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>0</v>
       </c>
@@ -14575,7 +14561,7 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2533333333333334</v>
       </c>
       <c r="E50">
@@ -14589,11 +14575,11 @@
         <v>5.7492354740061158</v>
       </c>
       <c r="H50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17393617021276597</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5239041271468855</v>
       </c>
       <c r="J50">
@@ -14603,11 +14589,11 @@
         <v>0.52507574976994897</v>
       </c>
       <c r="L50">
-        <f>$AD$8+$AD$9*C50+$AD$10*C50^2+$AD$11*B50+$AD$12*B50^2+$AD$13*B50*C50</f>
+        <f t="shared" si="1"/>
         <v>0.59042691999999997</v>
       </c>
       <c r="M50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77450516000000003</v>
       </c>
       <c r="AD50">
@@ -14617,7 +14603,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="2:31">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>-5</v>
       </c>
@@ -14625,7 +14611,7 @@
         <v>9</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2533333333333334</v>
       </c>
       <c r="E51">
@@ -14639,11 +14625,11 @@
         <v>5.875</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1702127659574468</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.51268905408869525</v>
       </c>
       <c r="J51">
@@ -14653,11 +14639,11 @@
         <v>0.55670672261772602</v>
       </c>
       <c r="L51">
-        <f>$AD$8+$AD$9*C51+$AD$10*C51^2+$AD$11*B51+$AD$12*B51^2+$AD$13*B51*C51</f>
+        <f t="shared" si="1"/>
         <v>0.34796871999999995</v>
       </c>
       <c r="M51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82918016000000005</v>
       </c>
       <c r="AD51">
@@ -14667,7 +14653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="2:31">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.2">
       <c r="AD52">
         <v>1</v>
       </c>
@@ -14675,50 +14661,38 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="2:31">
+    <row r="53" spans="2:31" x14ac:dyDescent="0.2">
       <c r="AE53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="2:31">
+    <row r="54" spans="2:31" x14ac:dyDescent="0.2">
       <c r="AE54" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="2:31">
+    <row r="55" spans="2:31" x14ac:dyDescent="0.2">
       <c r="AE55" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="2:31">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
       <c r="AD56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="2:31">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.2">
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="71" spans="13:14">
+    <row r="71" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="S5:U5"/>
@@ -14729,6 +14703,18 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
